--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4139532.681782662</v>
+        <v>4141351.953473703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287924</v>
+        <v>9964927.035287935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717232</v>
+        <v>430763.7823717218</v>
       </c>
     </row>
     <row r="9">
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>118.0867093812782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>172.56511195609</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>51.78529665020604</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>58.69342092928961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.51033041214353</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.59957183215739</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095463</v>
+        <v>30.60408762095429</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T12" t="n">
         <v>188.3907690366107</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>8.102241693787279</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>21.84464054481241</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082062</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>60.7721059679731</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16198843062754</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374541</v>
       </c>
       <c r="H25" t="n">
-        <v>89.9767698768225</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>131.6267707433243</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.3384883584589</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>93.78160283573108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>9.434273714506089</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>141.4740238230489</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>9.434273714506089</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>86.2717922279376</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045425</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>16.33367635867969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>193.9841461689758</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>212.8177824025071</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>133.3125405967904</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>137.5824211930908</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>23.57530571412647</v>
       </c>
       <c r="D46" t="n">
-        <v>64.44601915224108</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,13 +4354,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="U2" t="n">
         <v>2522.840897123182</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
         <v>273.6407423414375</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>266.695241592234</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X7" t="n">
-        <v>210.965822962985</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798765</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858353</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251603</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533582</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637507</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>137.3768927619376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>137.3768927619376</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862887</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685965</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C12" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F12" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G12" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S12" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U12" t="n">
         <v>2016.877442379908</v>
@@ -5162,7 +5162,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.876178449477</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.8882940911302</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C13" t="n">
-        <v>546.9521111632233</v>
+        <v>847.8549404312371</v>
       </c>
       <c r="D13" t="n">
-        <v>396.8354717508876</v>
+        <v>697.7383010189013</v>
       </c>
       <c r="E13" t="n">
-        <v>248.9223781684944</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0324306705841</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1936.638888267892</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1936.638888267892</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>1419.232167332914</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.5367589213699</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="14">
@@ -5257,55 +5257,55 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5314,7 +5314,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132384</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>732.2286627472043</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849127</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7680286442462</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5515,10 +5515,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5594,25 +5594,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L18" t="n">
-        <v>689.5532446329793</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M18" t="n">
-        <v>1281.571598885107</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N18" t="n">
-        <v>1903.667562284443</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5652,19 +5652,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507186</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892195</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294992</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234026</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
         <v>4606.950144347201</v>
@@ -5785,19 +5785,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149644</v>
+        <v>243.9627910411584</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587139</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="M21" t="n">
-        <v>1507.107777810839</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.203741210173</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695767</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5873,7 +5873,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.028458899664</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0922759717571</v>
+        <v>546.952111163226</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9756365594213</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2373.69331910273</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2190.52312884166</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>1970.844346556042</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1681.768132870769</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1427.083644664882</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1137.666474627921</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>909.6769237299037</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6769237299037</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6044,61 +6044,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034522</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L24" t="n">
-        <v>732.2286627472016</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M24" t="n">
-        <v>1324.247016999327</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N24" t="n">
-        <v>1946.342980398661</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O24" t="n">
-        <v>2493.219455398853</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6110,7 +6110,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>965.8040325357789</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C25" t="n">
-        <v>796.867849607872</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D25" t="n">
-        <v>646.7512101955363</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E25" t="n">
-        <v>498.8381166131431</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F25" t="n">
-        <v>351.9481691152328</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G25" t="n">
-        <v>184.7339742898116</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335687</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>2429.412499335687</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>2140.336285650414</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1885.651797444527</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>1596.234627407566</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.245076509549</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y25" t="n">
-        <v>1147.452497366019</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,19 +6214,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K26" t="n">
         <v>842.9746074384032</v>
@@ -6241,19 +6241,19 @@
         <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6271,7 +6271,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
         <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L27" t="n">
-        <v>734.6951238849103</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849103</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284247</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284443</v>
+        <v>2002.487122555114</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710519</v>
+        <v>2422.070640981191</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C28" t="n">
-        <v>930.48582603165</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193143</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369212</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390108</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135896</v>
+        <v>226.804682235773</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411611</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W28" t="n">
-        <v>1320.214588103087</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X28" t="n">
-        <v>1320.214588103087</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.422008959557</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6466,22 +6466,22 @@
         <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
         <v>4566.333620403612</v>
@@ -6542,22 +6542,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149663</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0894235587183</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810847</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.203741210184</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C31" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D31" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E31" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135896</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6651,22 +6651,22 @@
         <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160706</v>
@@ -6706,16 +6706,16 @@
         <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P32" t="n">
         <v>4202.751434297605</v>
@@ -6782,22 +6782,22 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>241.4963299034533</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>734.6951238849103</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284247</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6837,22 +6837,22 @@
         <v>495.0957149476028</v>
       </c>
       <c r="C34" t="n">
-        <v>485.5661455390108</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D34" t="n">
-        <v>485.5661455390108</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E34" t="n">
-        <v>485.5661455390108</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="F34" t="n">
-        <v>485.5661455390108</v>
+        <v>348.2057674496924</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135896</v>
+        <v>180.9915726242713</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685962</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963546</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812761</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668125</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668117</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849133</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>965.8040325357866</v>
+        <v>951.5089153771638</v>
       </c>
       <c r="C37" t="n">
-        <v>796.8678496078797</v>
+        <v>782.5727324492569</v>
       </c>
       <c r="D37" t="n">
-        <v>780.3691866193144</v>
+        <v>632.4560930369212</v>
       </c>
       <c r="E37" t="n">
-        <v>632.4560930369213</v>
+        <v>632.4560930369212</v>
       </c>
       <c r="F37" t="n">
-        <v>485.566145539011</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T37" t="n">
-        <v>2429.412499335695</v>
+        <v>2233.468917346832</v>
       </c>
       <c r="U37" t="n">
-        <v>2140.336285650421</v>
+        <v>1944.392703661559</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.651797444534</v>
+        <v>1689.708215455672</v>
       </c>
       <c r="W37" t="n">
-        <v>1596.234627407574</v>
+        <v>1400.291045418711</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.245076509556</v>
+        <v>1172.301494520694</v>
       </c>
       <c r="Y37" t="n">
-        <v>1147.452497366026</v>
+        <v>951.5089153771638</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L39" t="n">
-        <v>142.6767696327857</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849133</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.8714428665047</v>
+        <v>637.4047730538323</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>468.4685901259254</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.479909666413</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.403695981139</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.719207775252</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.302037738292</v>
+        <v>1267.835367925619</v>
       </c>
       <c r="X40" t="n">
-        <v>974.3124868402746</v>
+        <v>1039.845817027602</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.5199076967444</v>
+        <v>819.053237884072</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
         <v>893.7741287891952</v>
@@ -7493,10 +7493,10 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L42" t="n">
-        <v>734.6951238849103</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M42" t="n">
         <v>734.6951238849103</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.791123359144</v>
+        <v>714.7744972332207</v>
       </c>
       <c r="C43" t="n">
-        <v>847.854940431237</v>
+        <v>545.8383143053138</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7383010189012</v>
+        <v>395.7216748929781</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365081</v>
+        <v>395.7216748929781</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385978</v>
+        <v>395.7216748929781</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>228.5074800675569</v>
       </c>
       <c r="H43" t="n">
         <v>93.84834815160703</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2290.440356716413</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>2070.761574430795</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="U43" t="n">
-        <v>1781.685360745522</v>
+        <v>1889.306750347856</v>
       </c>
       <c r="V43" t="n">
-        <v>1527.000872539635</v>
+        <v>1634.622262141969</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.583702502674</v>
+        <v>1345.205092105008</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.583702502674</v>
+        <v>1117.215541206991</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.791123359144</v>
+        <v>896.4229620634604</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
@@ -7663,13 +7663,13 @@
         <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7730,22 +7730,22 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310565</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.755759562693</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N45" t="n">
-        <v>2276.85172296203</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2365.926498824747</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7785,22 +7785,22 @@
         <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196959</v>
+        <v>471.2822748323235</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0625429770282</v>
+        <v>471.2822748323235</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0625429770282</v>
+        <v>323.3691812499304</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K20" t="n">
-        <v>51.31264782911234</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782911228</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.31264782908329</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782908218</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>51.31264782908278</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.4398111833796</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.340811003608</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537625</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23673,7 +23673,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.84336705023925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.01876316045637</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="H25" t="n">
-        <v>50.47721991513147</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>8.827219048629559</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>192.7413955008599</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>157.8125473841218</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>76.00797063971288</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>157.8125473841218</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>54.18219756401629</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>23.49784829378598</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>73.70521593408387</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.141449195163489</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440895</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.75606716536811</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>143.6715153845014</v>
       </c>
       <c r="D46" t="n">
-        <v>84.16945386597128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440729</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185586</v>
       </c>
       <c r="F2" t="n">
-        <v>806682.9771185589</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="G2" t="n">
-        <v>806682.9771185587</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="H2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185593</v>
       </c>
       <c r="I2" t="n">
-        <v>806682.9771185587</v>
+        <v>806682.9771185594</v>
       </c>
       <c r="J2" t="n">
         <v>806682.9771185592</v>
       </c>
       <c r="K2" t="n">
-        <v>806682.9771185592</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="L2" t="n">
         <v>806682.9771185594</v>
@@ -26349,13 +26349,13 @@
         <v>806682.9771185592</v>
       </c>
       <c r="N2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185594</v>
       </c>
       <c r="O2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185593</v>
       </c>
       <c r="P2" t="n">
-        <v>806682.9771185595</v>
+        <v>806682.9771185593</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>3.104777988482965e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.518569088487614e-09</v>
+        <v>1.218711304318276e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192597</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901361</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.078090463124681e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662874</v>
+        <v>5069.91576066317</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662912</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662911</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760663172</v>
+        <v>5069.91576066282</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760663171</v>
+        <v>5069.915760662814</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662871</v>
+        <v>5069.915760662825</v>
       </c>
       <c r="K4" t="n">
         <v>5069.91576066282</v>
       </c>
       <c r="L4" t="n">
+        <v>5069.915760662815</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5069.915760662894</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5069.915760662834</v>
+      </c>
+      <c r="O4" t="n">
         <v>5069.91576066282</v>
       </c>
-      <c r="M4" t="n">
-        <v>5069.915760662916</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5069.915760662916</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5069.915760662821</v>
-      </c>
       <c r="P4" t="n">
-        <v>5069.915760662814</v>
+        <v>5069.915760662822</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26502,10 +26502,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
         <v>100930.0394572386</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610046</v>
+        <v>-43991.78380610023</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084442</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="D6" t="n">
         <v>545976.0954084441</v>
       </c>
       <c r="E6" t="n">
-        <v>-236185.6133724978</v>
+        <v>-235862.5405357162</v>
       </c>
       <c r="F6" t="n">
-        <v>700324.0520820145</v>
+        <v>700647.1249187902</v>
       </c>
       <c r="G6" t="n">
-        <v>700324.0520820143</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="H6" t="n">
-        <v>700324.0520820172</v>
+        <v>700647.1249187923</v>
       </c>
       <c r="I6" t="n">
-        <v>700324.0520820139</v>
+        <v>700647.1249187937</v>
       </c>
       <c r="J6" t="n">
-        <v>523900.8328894175</v>
+        <v>524223.9057262004</v>
       </c>
       <c r="K6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="L6" t="n">
-        <v>700324.052082015</v>
+        <v>700647.1249187937</v>
       </c>
       <c r="M6" t="n">
-        <v>576016.8406918787</v>
+        <v>576339.9135286562</v>
       </c>
       <c r="N6" t="n">
-        <v>700324.0520820144</v>
+        <v>700647.1249187936</v>
       </c>
       <c r="O6" t="n">
-        <v>700324.0520820136</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="P6" t="n">
-        <v>700324.052082015</v>
+        <v>700647.1249187934</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26755,10 +26755,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
         <v>1358.041048716387</v>
@@ -26770,10 +26770,10 @@
         <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
         <v>1358.041048716387</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992948</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.823722932998803e-12</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>56.32900342769332</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>78.65905555219931</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="n">
         <v>355.0907490915054</v>
-      </c>
-      <c r="G5" t="n">
-        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0.6124195427707768</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.13204062090043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>69.3317444127038</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609827</v>
+        <v>149.227892560983</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.45905009637449e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688745</v>
+        <v>428.3656332688842</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,34 +32080,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>144.6254088085925</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,34 +32317,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L18" t="n">
-        <v>591.1371219309108</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684821</v>
+        <v>140.3328138609298</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
-        <v>571.4938338238319</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426184</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P24" t="n">
-        <v>195.1793561990917</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,13 +33028,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>302.8877650506799</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927647</v>
@@ -33046,7 +33046,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286956</v>
+        <v>273.0542121815526</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745732</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504309</v>
@@ -33277,10 +33277,10 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>571.493833823821</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,25 +33502,25 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>640.314633903288</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>557.796143198246</v>
+        <v>413.732621286791</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>306.467419192828</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>413.732621286791</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,13 +34213,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>302.8877650506799</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>640.314633903288</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927647</v>
@@ -34450,7 +34450,7 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745732</v>
@@ -34462,13 +34462,13 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>422.3544583169052</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>329.7654668850306</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855412</v>
+        <v>297.0239211855509</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>605.1570404425736</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>2.491374886574134</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955297</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5827421510367</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607188</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K20" t="n">
-        <v>525.6867728671726</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710462</v>
+        <v>2.491374886570804</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946964</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284094</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
-        <v>428.8975893793875</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>741.072280616118</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946964</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981739</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P24" t="n">
-        <v>61.20494878476147</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160927</v>
       </c>
       <c r="P26" t="n">
         <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
         <v>127.3573607845846</v>
@@ -36676,13 +36676,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>164.3333852708058</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094314</v>
@@ -36694,7 +36694,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426741</v>
+        <v>133.0724380955311</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
         <v>625.7775560664402</v>
@@ -36852,7 +36852,7 @@
         <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812694946</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845846</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.689225094699</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284126</v>
@@ -36925,10 +36925,10 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>428.8975893793765</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
         <v>728.2874363020592</v>
@@ -37086,7 +37086,7 @@
         <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404118</v>
@@ -37150,25 +37150,25 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>498.1805999812698</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839158</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136667</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>164.3333852708097</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>49.32163785977649</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>525.686772867146</v>
       </c>
       <c r="L41" t="n">
         <v>625.7775560664402</v>
@@ -37861,13 +37861,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>164.3333852708058</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>498.1805999812698</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094314</v>
@@ -38031,7 +38031,7 @@
         <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
         <v>553.8443926134837</v>
@@ -38040,7 +38040,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>495.689225094699</v>
@@ -38110,13 +38110,13 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>279.7582138724608</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>189.7836927990091</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
